--- a/数据整理/stocks/A股/创业板/301269-华大九天.xlsx
+++ b/数据整理/stocks/A股/创业板/301269-华大九天.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,13 +483,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2022-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>16</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>7.84</v>
       </c>
     </row>
@@ -498,6 +515,1050 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0910</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9748</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4099</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010052</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2676</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安智能生活混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0191</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安成长创新混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6695</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013621</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安智能生活混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3950</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3757</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008980</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2831</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007126</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博道远航混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2440</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1995</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014754</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1889</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007127</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博道远航混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1811</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013620</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008981</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006025</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺安优化配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013369</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富自主核心科技一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014755</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013340</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013339</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001662</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>016099</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安成长创新混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013370</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富自主核心科技一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.35</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>015919</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>申万菱信专精特新主题混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>48.55</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014972</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>015920</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>申万菱信专精特新主题混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>48.55</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
